--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H2">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I2">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J2">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>1780.816076465936</v>
+        <v>826.5073283793083</v>
       </c>
       <c r="R2">
-        <v>16027.34468819343</v>
+        <v>7438.565955413776</v>
       </c>
       <c r="S2">
-        <v>0.3377295600469867</v>
+        <v>0.2882178201712872</v>
       </c>
       <c r="T2">
-        <v>0.3377295600469867</v>
+        <v>0.2882178201712871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H3">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I3">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J3">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>1590.644275733753</v>
+        <v>316.8444275827083</v>
       </c>
       <c r="R3">
-        <v>14315.79848160378</v>
+        <v>2851.599848244375</v>
       </c>
       <c r="S3">
-        <v>0.3016637139198097</v>
+        <v>0.110489292854035</v>
       </c>
       <c r="T3">
-        <v>0.3016637139198097</v>
+        <v>0.110489292854035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H4">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I4">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J4">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>907.8914893058719</v>
+        <v>180.8451855796833</v>
       </c>
       <c r="R4">
-        <v>8171.023403752848</v>
+        <v>1627.60667021715</v>
       </c>
       <c r="S4">
-        <v>0.172180494833679</v>
+        <v>0.06306393589813102</v>
       </c>
       <c r="T4">
-        <v>0.172180494833679</v>
+        <v>0.06306393589813102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.70865</v>
       </c>
       <c r="I5">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J5">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>30.13506345335</v>
+        <v>70.21448984094999</v>
       </c>
       <c r="R5">
-        <v>271.21557108015</v>
+        <v>631.93040856855</v>
       </c>
       <c r="S5">
-        <v>0.005715077405570918</v>
+        <v>0.02448504267479431</v>
       </c>
       <c r="T5">
-        <v>0.005715077405570917</v>
+        <v>0.0244850426747943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.70865</v>
       </c>
       <c r="I6">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J6">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>26.91696622374999</v>
@@ -818,10 +818,10 @@
         <v>242.25269601375</v>
       </c>
       <c r="S6">
-        <v>0.005104769257579519</v>
+        <v>0.009386425339804171</v>
       </c>
       <c r="T6">
-        <v>0.005104769257579518</v>
+        <v>0.009386425339804171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.70865</v>
       </c>
       <c r="I7">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J7">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>15.3633876067</v>
@@ -880,10 +880,10 @@
         <v>138.2704884603</v>
       </c>
       <c r="S7">
-        <v>0.00291364740346411</v>
+        <v>0.005357486781312003</v>
       </c>
       <c r="T7">
-        <v>0.00291364740346411</v>
+        <v>0.005357486781312001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.734363</v>
       </c>
       <c r="I8">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J8">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>383.3239154438548</v>
+        <v>893.142077115278</v>
       </c>
       <c r="R8">
-        <v>3449.915238994693</v>
+        <v>8038.278694037502</v>
       </c>
       <c r="S8">
-        <v>0.07269690510389873</v>
+        <v>0.3114545433906712</v>
       </c>
       <c r="T8">
-        <v>0.07269690510389873</v>
+        <v>0.3114545433906712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.734363</v>
       </c>
       <c r="I9">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J9">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>342.3890877392805</v>
@@ -1004,10 +1004,10 @@
         <v>3081.501789653525</v>
       </c>
       <c r="S9">
-        <v>0.06493366580368932</v>
+        <v>0.1193971706362931</v>
       </c>
       <c r="T9">
-        <v>0.06493366580368932</v>
+        <v>0.1193971706362931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.734363</v>
       </c>
       <c r="I10">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J10">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>195.4253025217096</v>
@@ -1066,10 +1066,10 @@
         <v>1758.827722695386</v>
       </c>
       <c r="S10">
-        <v>0.037062166225322</v>
+        <v>0.068148282253672</v>
       </c>
       <c r="T10">
-        <v>0.037062166225322</v>
+        <v>0.068148282253672</v>
       </c>
     </row>
   </sheetData>
